--- a/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
+++ b/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,15 +22,27 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>001128</t>
+  </si>
+  <si>
+    <t>001487</t>
+  </si>
+  <si>
     <t>001877</t>
   </si>
   <si>
@@ -40,10 +52,10 @@
     <t>006701</t>
   </si>
   <si>
-    <t>001128</t>
-  </si>
-  <si>
-    <t>001487</t>
+    <t>宝盈新兴产业灵活配置混合</t>
+  </si>
+  <si>
+    <t>宝盈优势产业灵活配置混合</t>
   </si>
   <si>
     <t>宝盈国家安全战略沪港深股票</t>
@@ -55,10 +67,25 @@
     <t>红土创新稳健混合C</t>
   </si>
   <si>
-    <t>宝盈新兴产业灵活配置混合</t>
-  </si>
-  <si>
-    <t>宝盈优势产业灵活配置混合</t>
+    <t>10.59</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>92.16</t>
+  </si>
+  <si>
+    <t>92.40</t>
   </si>
   <si>
     <t>89.45</t>
@@ -67,10 +94,10 @@
     <t>23.40</t>
   </si>
   <si>
-    <t>92.16</t>
-  </si>
-  <si>
-    <t>92.40</t>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>4.44</t>
   </si>
   <si>
     <t>4.86</t>
@@ -79,10 +106,19 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>4.44</t>
+    <t>0.5030</t>
+  </si>
+  <si>
+    <t>0.0662</t>
+  </si>
+  <si>
+    <t>0.0146</t>
+  </si>
+  <si>
+    <t>0.0008</t>
+  </si>
+  <si>
+    <t>0.0003</t>
   </si>
 </sst>
 </file>
@@ -440,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,105 +498,141 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
+++ b/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
@@ -1,156 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001128</t>
-  </si>
-  <si>
-    <t>001487</t>
-  </si>
-  <si>
-    <t>001877</t>
-  </si>
-  <si>
-    <t>006700</t>
-  </si>
-  <si>
-    <t>006701</t>
-  </si>
-  <si>
-    <t>宝盈新兴产业灵活配置混合</t>
-  </si>
-  <si>
-    <t>宝盈优势产业灵活配置混合</t>
-  </si>
-  <si>
-    <t>宝盈国家安全战略沪港深股票</t>
-  </si>
-  <si>
-    <t>红土创新稳健混合A</t>
-  </si>
-  <si>
-    <t>红土创新稳健混合C</t>
-  </si>
-  <si>
-    <t>10.59</t>
-  </si>
-  <si>
-    <t>1.49</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>92.16</t>
-  </si>
-  <si>
-    <t>92.40</t>
-  </si>
-  <si>
-    <t>89.45</t>
-  </si>
-  <si>
-    <t>23.40</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>4.44</t>
-  </si>
-  <si>
-    <t>4.86</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.5030</t>
-  </si>
-  <si>
-    <t>0.0662</t>
-  </si>
-  <si>
-    <t>0.0146</t>
-  </si>
-  <si>
-    <t>0.0008</t>
-  </si>
-  <si>
-    <t>0.0003</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,167 +446,759 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8171</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6801</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3336</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
+++ b/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8908</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
+++ b/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
+++ b/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1533,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,17 +1545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0744</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.28</v>
       </c>
     </row>
     <row r="3">
@@ -1580,14 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.16</v>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1596,13 +1661,515 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4201</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
+++ b/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,17 +2096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2115,14 +2136,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.14</v>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8076</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2131,14 +2174,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.28</v>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2147,14 +2212,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.16</v>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2163,13 +2250,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5293</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
+++ b/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2597,7 +2598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2608,17 +2609,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2628,14 +2649,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.3</v>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9991</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2644,14 +2687,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.14</v>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2660,14 +2725,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.28</v>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6805</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2676,14 +2763,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.16</v>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6319</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2692,13 +2801,661 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4447</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
+++ b/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,247 +456,873 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001128</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5030</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001487</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0662</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>23.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>23.40</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9991</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6805</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6319</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4447</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -723,7 +1349,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,36 +1379,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320006</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安灵活配置混合</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.57</t>
+          <t>86.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8171</t>
+          <t>0.8076</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -791,36 +1417,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001702</t>
+          <t>320006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方创新科技混合</t>
+          <t>诺安灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.35</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>70.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6801</t>
+          <t>0.7440</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -829,36 +1455,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>001702</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>东方创新科技混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.42</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3336</t>
+          <t>0.5387</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -867,36 +1493,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001318</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方新策略灵活配置混合A</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>17.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22.81</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0955</t>
+          <t>0.5293</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -905,36 +1531,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>400032</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方主题精选混合</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>13.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>90.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0815</t>
+          <t>0.4988</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -943,36 +1569,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002060</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方新策略灵活配置混合C</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.81</t>
+          <t>91.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0490</t>
+          <t>0.3617</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -981,36 +1607,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>090009</t>
+          <t>959991</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成行业轮动混合</t>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>79.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0419</t>
+          <t>0.3279</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1019,36 +1645,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000530</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商丰盛稳定增长灵活配置混合A</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>96.11</t>
+          <t>87.76</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0335</t>
+          <t>0.2287</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1057,36 +1683,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>008988</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>大成科技创新混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.1481</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1095,36 +1721,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002417</t>
+          <t>008989</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商丰盛稳定增长灵活配置混合C</t>
+          <t>大成科技创新混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>96.11</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0620</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1133,32 +1759,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006700</t>
+          <t>090009</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>红土创新稳健混合A</t>
+          <t>大成行业轮动混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33.81</t>
+          <t>82.88</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0398</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1171,358 +1797,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006701</t>
+          <t>959993</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>红土创新稳健混合C</t>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>33.81</t>
+          <t>79.70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8908</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>400032</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方主题精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5464</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001702</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方创新科技混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5268</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000006</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2611</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000530</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商丰盛稳定增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0302</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011228</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002417</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商丰盛稳定增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2107,7 +2411,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2137,36 +2441,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>320006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>诺安灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>12.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.76</t>
+          <t>76.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8076</t>
+          <t>0.8908</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2175,32 +2479,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>320006</t>
+          <t>400032</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安灵活配置混合</t>
+          <t>东方主题精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.73</t>
+          <t>87.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7440</t>
+          <t>0.5464</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2223,26 +2527,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5387</t>
+          <t>0.5268</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2251,36 +2555,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>000006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>西部利得量化成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.02</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>90.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5293</t>
+          <t>0.2611</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2289,36 +2593,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>000530</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4988</t>
+          <t>0.0302</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2327,36 +2631,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160642</t>
+          <t>011228</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
+          <t>西部利得量化成长混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.34</t>
+          <t>90.24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3617</t>
+          <t>0.0151</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2365,226 +2669,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>959991</t>
+          <t>002417</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.70</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3279</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.76</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2287</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008988</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1481</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008989</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0620</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>090009</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.88</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0398</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>959993</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>79.70</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,7 +2733,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2649,36 +2763,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>400032</t>
+          <t>320006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方主题精选混合</t>
+          <t>诺安灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.59</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>71.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9991</t>
+          <t>0.8171</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2687,36 +2801,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>320006</t>
+          <t>001702</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安灵活配置混合</t>
+          <t>东方创新科技混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>17.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.87</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8294</t>
+          <t>0.6801</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2725,36 +2839,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001702</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方创新科技混合</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>87.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6805</t>
+          <t>0.3336</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2763,36 +2877,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>001318</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>东方新策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.06</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>22.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6319</t>
+          <t>0.0955</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2801,36 +2915,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>400032</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>东方主题精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>90.49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5080</t>
+          <t>0.0815</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2839,36 +2953,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013613</t>
+          <t>002060</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>宝盈国家安全沪港深股票C</t>
+          <t>东方新策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>22.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5080</t>
+          <t>0.0490</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2877,36 +2991,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>090009</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>大成行业轮动混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>89.43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4447</t>
+          <t>0.0419</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2915,36 +3029,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009994</t>
+          <t>000530</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实创新先锋混合A</t>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.04</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.34</t>
+          <t>96.11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3524</t>
+          <t>0.0335</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2953,36 +3067,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.79</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1934</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2991,36 +3105,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011458</t>
+          <t>002417</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>96.11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1905</t>
+          <t>0.0095</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -3029,36 +3143,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001075</t>
+          <t>006700</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>宝盈转型动力灵活配置混合</t>
+          <t>红土创新稳健混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>33.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1518</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -3067,263 +3181,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160642</t>
+          <t>006701</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
+          <t>红土创新稳健混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>33.81</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1403</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>012815</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>宝盈新兴产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0880</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>014653</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信卓越成长一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.21</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0768</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>012771</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0751</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009995</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实创新先锋混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.34</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0744</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011459</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0689</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>014654</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信卓越成长一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>81.21</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3338,128 +3224,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.02</v>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.3</v>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.14</v>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.28</v>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.58</v>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
+++ b/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>6.02</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>4.3</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>4.14</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>2.28</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -583,6 +600,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6200</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3050</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1322,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1834,7 +2439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2384,7 +2989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2706,7 +3311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3218,7 +3823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
+++ b/数据整理/stocks/A股/科创板/688665-四方光电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>3.18</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>6.02</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>4.3</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>4.14</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>2.28</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -600,6 +617,516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4105</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3968</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015373</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015374</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +1714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1927,7 +2454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2439,7 +2966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2989,7 +3516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3311,7 +3838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3823,7 +4350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
